--- a/src/main/resources/static/files/EBOM导入模板.xlsx
+++ b/src/main/resources/static/files/EBOM导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -172,6 +172,13 @@
   </si>
   <si>
     <t>单车用量信息（依次拼接即可）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备件</t>
+  </si>
+  <si>
+    <t>备件编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -191,6 +198,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -539,18 +547,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:BA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="51" max="51" width="31.625" customWidth="1"/>
+    <col min="53" max="53" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,13 +707,19 @@
         <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -757,8 +771,10 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2"/>
-    </row>
-    <row r="3" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+    </row>
+    <row r="3" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -810,8 +826,10 @@
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
-    </row>
-    <row r="4" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+    </row>
+    <row r="4" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -863,8 +881,10 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
-    </row>
-    <row r="5" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+    </row>
+    <row r="5" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -916,8 +936,10 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
-    </row>
-    <row r="6" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+    </row>
+    <row r="6" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -969,8 +991,10 @@
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
-    </row>
-    <row r="7" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+    </row>
+    <row r="7" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1022,8 +1046,10 @@
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
-    </row>
-    <row r="8" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+    </row>
+    <row r="8" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1075,8 +1101,10 @@
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
-    </row>
-    <row r="9" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+    </row>
+    <row r="9" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1128,8 +1156,10 @@
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
       <c r="AY9" s="2"/>
-    </row>
-    <row r="10" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+    </row>
+    <row r="10" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1181,8 +1211,10 @@
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
       <c r="AY10" s="2"/>
-    </row>
-    <row r="11" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+    </row>
+    <row r="11" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1234,8 +1266,10 @@
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
-    </row>
-    <row r="12" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+    </row>
+    <row r="12" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1287,8 +1321,10 @@
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
-    </row>
-    <row r="13" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+    </row>
+    <row r="13" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1340,8 +1376,10 @@
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
       <c r="AY13" s="2"/>
-    </row>
-    <row r="14" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+    </row>
+    <row r="14" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1393,8 +1431,10 @@
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
-    </row>
-    <row r="15" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+    </row>
+    <row r="15" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1446,8 +1486,10 @@
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
-    </row>
-    <row r="16" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+    </row>
+    <row r="16" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1499,8 +1541,10 @@
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
-    </row>
-    <row r="17" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+    </row>
+    <row r="17" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1552,8 +1596,10 @@
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
-    </row>
-    <row r="18" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+    </row>
+    <row r="18" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1605,8 +1651,10 @@
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
       <c r="AY18" s="2"/>
-    </row>
-    <row r="19" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+    </row>
+    <row r="19" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1658,8 +1706,10 @@
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
       <c r="AY19" s="2"/>
-    </row>
-    <row r="20" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+    </row>
+    <row r="20" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1711,8 +1761,10 @@
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
-    </row>
-    <row r="21" spans="1:51" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+    </row>
+    <row r="21" spans="1:53" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1764,6 +1816,8 @@
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
       <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
